--- a/payslip.xlsx
+++ b/payslip.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stevenjoeng/Desktop/python-workspace/gojan-payslip-converter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\PycharmProjects\neis-to-payslip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A283F695-9DF3-344E-9E36-5DE0D0C45C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915B7C7D-CF5D-4115-B6B7-E8651E6C0F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="500" windowWidth="28800" windowHeight="19080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5424" yWindow="1416" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -868,10 +868,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> ※ 위 근로자 정명숙은(는) 임금명세서 1부를 교부받았습니다.       성명    박지현      (인)                    2022.3.17</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>위험근무수당</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -952,6 +948,10 @@
   <si>
     <t>1990.1.1.~
 정년</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ※ 위 근로자 홍길동은(는) 임금명세서 1부를 교부받았습니다.       성명    홍길동      (인)                    2022.3.17</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -959,10 +959,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0_ "/>
-    <numFmt numFmtId="166" formatCode="0_ "/>
-    <numFmt numFmtId="167" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1147,7 +1147,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1155,7 +1155,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1829,7 +1829,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1894,7 +1894,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1909,37 +1909,37 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1963,22 +1963,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2026,25 +2026,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="14" fillId="6" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2110,28 +2110,241 @@
     <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="41" fontId="14" fillId="6" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2155,223 +2368,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2654,30 +2654,30 @@
   </sheetPr>
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="25.05" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.796875" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="19" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="43.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.69921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3.69921875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.19921875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="43.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="66.5" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="15.6640625" style="1"/>
+    <col min="14" max="16384" width="15.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="1:13" ht="25" customHeight="1">
+    <row r="1" spans="1:13" ht="25.05" customHeight="1" thickBot="1"/>
+    <row r="2" spans="1:13" ht="25.05" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2688,23 +2688,23 @@
       <c r="H2" s="3"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:13" ht="35" customHeight="1">
+    <row r="3" spans="1:13" ht="34.950000000000003" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
       <c r="I3" s="6"/>
-      <c r="K3" s="128" t="s">
+      <c r="K3" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="129"/>
-      <c r="M3" s="129"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1">
       <c r="A4" s="5"/>
@@ -2719,17 +2719,17 @@
     </row>
     <row r="5" spans="1:13" ht="31.5" customHeight="1" thickBot="1">
       <c r="A5" s="5"/>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="108" t="s">
+      <c r="G5" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="108"/>
+      <c r="H5" s="160"/>
       <c r="I5" s="6"/>
       <c r="K5" s="9" t="s">
         <v>4</v>
@@ -2741,28 +2741,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="35" customHeight="1">
+    <row r="6" spans="1:13" ht="34.950000000000003" customHeight="1">
       <c r="A6" s="5"/>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="161" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I6" s="6"/>
       <c r="K6" s="14" t="s">
@@ -2773,14 +2773,14 @@
       </c>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="1:13" ht="35" customHeight="1">
+    <row r="7" spans="1:13" ht="34.950000000000003" customHeight="1">
       <c r="A7" s="5"/>
-      <c r="B7" s="110"/>
+      <c r="B7" s="162"/>
       <c r="C7" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>13</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="8" spans="1:13" ht="19.5" customHeight="1">
       <c r="A8" s="5"/>
-      <c r="B8" s="151" t="s">
+      <c r="B8" s="142" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="24" t="s">
@@ -2816,10 +2816,10 @@
       <c r="D8" s="25">
         <v>31</v>
       </c>
-      <c r="E8" s="123" t="s">
+      <c r="E8" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="124">
+      <c r="F8" s="150">
         <v>209</v>
       </c>
       <c r="G8" s="26" t="s">
@@ -2829,27 +2829,27 @@
         <v>23</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="K8" s="126" t="s">
+      <c r="K8" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="111" t="s">
+      <c r="L8" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="111" t="s">
+      <c r="M8" s="153" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="19.5" customHeight="1">
       <c r="A9" s="5"/>
-      <c r="B9" s="151"/>
+      <c r="B9" s="142"/>
       <c r="C9" s="28" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="29">
         <v>0</v>
       </c>
-      <c r="E9" s="116"/>
-      <c r="F9" s="125"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="151"/>
       <c r="G9" s="30">
         <v>0</v>
       </c>
@@ -2857,112 +2857,112 @@
         <v>0</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="112"/>
+      <c r="K9" s="145"/>
+      <c r="L9" s="154"/>
+      <c r="M9" s="154"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" customHeight="1">
       <c r="A10" s="5"/>
-      <c r="B10" s="151"/>
+      <c r="B10" s="142"/>
       <c r="C10" s="24" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="25">
         <v>0</v>
       </c>
-      <c r="E10" s="115" t="s">
+      <c r="E10" s="134" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="32">
         <v>0</v>
       </c>
-      <c r="G10" s="117" t="s">
+      <c r="G10" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="118">
+      <c r="H10" s="164">
         <v>0</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="K10" s="153" t="s">
+      <c r="K10" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="154" t="s">
+      <c r="L10" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="154" t="s">
+      <c r="M10" s="146" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="151"/>
+      <c r="B11" s="142"/>
       <c r="C11" s="33" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="29">
         <v>0</v>
       </c>
-      <c r="E11" s="116"/>
+      <c r="E11" s="149"/>
       <c r="F11" s="34">
         <v>0</v>
       </c>
-      <c r="G11" s="117"/>
-      <c r="H11" s="119"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="165"/>
       <c r="I11" s="6"/>
-      <c r="K11" s="127"/>
-      <c r="L11" s="155"/>
-      <c r="M11" s="99"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="147"/>
+      <c r="M11" s="148"/>
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="151"/>
-      <c r="C12" s="143" t="s">
+      <c r="B12" s="142"/>
+      <c r="C12" s="132" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="25">
         <v>0</v>
       </c>
-      <c r="E12" s="115" t="s">
+      <c r="E12" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="146">
+      <c r="F12" s="136">
         <v>9</v>
       </c>
-      <c r="G12" s="123" t="s">
+      <c r="G12" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="148">
+      <c r="H12" s="139">
         <f>ROUNDUP(((3000000+140000+39000*F12)/F8),2)</f>
         <v>16703.349999999999</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="K12" s="150" t="s">
+      <c r="K12" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="132" t="s">
+      <c r="L12" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="133" t="s">
+      <c r="M12" s="122" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="152"/>
-      <c r="C13" s="144"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="133"/>
       <c r="D13" s="35">
         <v>0</v>
       </c>
-      <c r="E13" s="145"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="149"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="140"/>
       <c r="I13" s="6"/>
-      <c r="K13" s="150"/>
-      <c r="L13" s="132"/>
-      <c r="M13" s="132"/>
-    </row>
-    <row r="14" spans="1:13" ht="25" customHeight="1" thickBot="1">
+      <c r="K13" s="141"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+    </row>
+    <row r="14" spans="1:13" ht="25.05" customHeight="1" thickBot="1">
       <c r="A14" s="5"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -2982,19 +2982,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="35" customHeight="1">
+    <row r="15" spans="1:13" ht="34.950000000000003" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="134" t="s">
+      <c r="B15" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="135"/>
-      <c r="D15" s="135"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="137" t="s">
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="138"/>
+      <c r="H15" s="127"/>
       <c r="I15" s="6"/>
       <c r="K15" s="21" t="s">
         <v>45</v>
@@ -3006,16 +3006,16 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="35" customHeight="1" thickBot="1">
+    <row r="16" spans="1:13" ht="34.950000000000003" customHeight="1" thickBot="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="139" t="s">
+      <c r="B16" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="140"/>
-      <c r="D16" s="141" t="s">
+      <c r="C16" s="129"/>
+      <c r="D16" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="142"/>
+      <c r="E16" s="131"/>
       <c r="F16" s="38" t="s">
         <v>49</v>
       </c>
@@ -3036,18 +3036,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="35" customHeight="1" thickTop="1">
+    <row r="17" spans="1:13" ht="34.950000000000003" customHeight="1" thickTop="1">
       <c r="A17" s="5"/>
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="168" t="s">
         <v>53</v>
       </c>
       <c r="C17" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="120" t="s">
+      <c r="D17" s="166" t="s">
         <v>120</v>
       </c>
-      <c r="E17" s="121"/>
+      <c r="E17" s="167"/>
       <c r="F17" s="43">
         <v>1234</v>
       </c>
@@ -3068,16 +3068,16 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="35" customHeight="1">
+    <row r="18" spans="1:13" ht="34.950000000000003" customHeight="1">
       <c r="A18" s="5"/>
-      <c r="B18" s="96"/>
+      <c r="B18" s="116"/>
       <c r="C18" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="113" t="s">
+      <c r="D18" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="114"/>
+      <c r="E18" s="104"/>
       <c r="F18" s="46">
         <v>1234</v>
       </c>
@@ -3100,14 +3100,14 @@
     </row>
     <row r="19" spans="1:13" ht="40.5" customHeight="1">
       <c r="A19" s="5"/>
-      <c r="B19" s="96"/>
+      <c r="B19" s="116"/>
       <c r="C19" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="113" t="s">
+      <c r="D19" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="114"/>
+      <c r="E19" s="104"/>
       <c r="F19" s="46">
         <v>1234</v>
       </c>
@@ -3130,14 +3130,14 @@
     </row>
     <row r="20" spans="1:13" ht="39.75" customHeight="1">
       <c r="A20" s="5"/>
-      <c r="B20" s="96"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="122" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="118" t="s">
         <v>123</v>
       </c>
-      <c r="E20" s="122"/>
+      <c r="E20" s="118"/>
       <c r="F20" s="46">
         <v>1234</v>
       </c>
@@ -3158,14 +3158,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="35" customHeight="1">
+    <row r="21" spans="1:13" ht="34.950000000000003" customHeight="1">
       <c r="A21" s="5"/>
-      <c r="B21" s="96"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="D21" s="113"/>
-      <c r="E21" s="114"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="104"/>
       <c r="F21" s="46"/>
       <c r="G21" s="79" t="s">
         <v>112</v>
@@ -3175,14 +3175,14 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:13" ht="35" customHeight="1" thickBot="1">
+    <row r="22" spans="1:13" ht="34.950000000000003" customHeight="1" thickBot="1">
       <c r="A22" s="5"/>
-      <c r="B22" s="96"/>
+      <c r="B22" s="116"/>
       <c r="C22" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="113"/>
-      <c r="E22" s="114"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="104"/>
       <c r="F22" s="46"/>
       <c r="G22" s="79" t="s">
         <v>113</v>
@@ -3199,14 +3199,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="35" customHeight="1" thickTop="1">
+    <row r="23" spans="1:13" ht="34.950000000000003" customHeight="1" thickTop="1">
       <c r="A23" s="5"/>
-      <c r="B23" s="96"/>
+      <c r="B23" s="116"/>
       <c r="C23" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="113"/>
-      <c r="E23" s="114"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="104"/>
       <c r="F23" s="46"/>
       <c r="G23" s="79" t="s">
         <v>114</v>
@@ -3221,14 +3221,14 @@
       </c>
       <c r="M23" s="55"/>
     </row>
-    <row r="24" spans="1:13" ht="35" customHeight="1">
+    <row r="24" spans="1:13" ht="34.950000000000003" customHeight="1">
       <c r="A24" s="5"/>
-      <c r="B24" s="96"/>
+      <c r="B24" s="116"/>
       <c r="C24" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="113"/>
-      <c r="E24" s="114"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="104"/>
       <c r="F24" s="46"/>
       <c r="G24" s="79" t="s">
         <v>115</v>
@@ -3245,14 +3245,14 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="35" customHeight="1">
+    <row r="25" spans="1:13" ht="34.950000000000003" customHeight="1">
       <c r="A25" s="5"/>
-      <c r="B25" s="96"/>
+      <c r="B25" s="116"/>
       <c r="C25" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="113"/>
-      <c r="E25" s="114"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="104"/>
       <c r="F25" s="46"/>
       <c r="G25" s="79" t="s">
         <v>116</v>
@@ -3262,21 +3262,21 @@
       <c r="K25" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="L25" s="103" t="s">
+      <c r="L25" s="174" t="s">
         <v>80</v>
       </c>
-      <c r="M25" s="98" t="s">
+      <c r="M25" s="170" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="35" customHeight="1">
+    <row r="26" spans="1:13" ht="34.950000000000003" customHeight="1">
       <c r="A26" s="5"/>
-      <c r="B26" s="96"/>
+      <c r="B26" s="116"/>
       <c r="C26" s="81" t="s">
-        <v>128</v>
-      </c>
-      <c r="D26" s="175"/>
-      <c r="E26" s="176"/>
+        <v>127</v>
+      </c>
+      <c r="D26" s="101"/>
+      <c r="E26" s="102"/>
       <c r="F26" s="46"/>
       <c r="G26" s="79" t="s">
         <v>117</v>
@@ -3286,17 +3286,17 @@
       <c r="K26" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="L26" s="104"/>
-      <c r="M26" s="106"/>
-    </row>
-    <row r="27" spans="1:13" ht="35" customHeight="1">
+      <c r="L26" s="175"/>
+      <c r="M26" s="177"/>
+    </row>
+    <row r="27" spans="1:13" ht="34.950000000000003" customHeight="1">
       <c r="A27" s="5"/>
-      <c r="B27" s="96"/>
+      <c r="B27" s="116"/>
       <c r="C27" s="81" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" s="113"/>
-      <c r="E27" s="114"/>
+        <v>128</v>
+      </c>
+      <c r="D27" s="103"/>
+      <c r="E27" s="104"/>
       <c r="F27" s="46"/>
       <c r="G27" s="79" t="s">
         <v>118</v>
@@ -3306,17 +3306,17 @@
       <c r="K27" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="L27" s="105"/>
-      <c r="M27" s="99"/>
-    </row>
-    <row r="28" spans="1:13" ht="35" customHeight="1">
+      <c r="L27" s="176"/>
+      <c r="M27" s="148"/>
+    </row>
+    <row r="28" spans="1:13" ht="34.950000000000003" customHeight="1">
       <c r="A28" s="5"/>
-      <c r="B28" s="96"/>
+      <c r="B28" s="116"/>
       <c r="C28" s="81" t="s">
-        <v>132</v>
-      </c>
-      <c r="D28" s="113"/>
-      <c r="E28" s="114"/>
+        <v>131</v>
+      </c>
+      <c r="D28" s="103"/>
+      <c r="E28" s="104"/>
       <c r="F28" s="46"/>
       <c r="G28" s="79" t="s">
         <v>119</v>
@@ -3327,21 +3327,21 @@
         <v>78</v>
       </c>
       <c r="L28" s="66"/>
-      <c r="M28" s="98" t="s">
+      <c r="M28" s="170" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="35" customHeight="1">
+    <row r="29" spans="1:13" ht="34.950000000000003" customHeight="1">
       <c r="A29" s="5"/>
-      <c r="B29" s="96"/>
+      <c r="B29" s="116"/>
       <c r="C29" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="D29" s="113"/>
-      <c r="E29" s="114"/>
+        <v>129</v>
+      </c>
+      <c r="D29" s="103"/>
+      <c r="E29" s="104"/>
       <c r="F29" s="46"/>
       <c r="G29" s="79" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H29" s="48"/>
       <c r="I29" s="6"/>
@@ -3349,19 +3349,19 @@
         <v>82</v>
       </c>
       <c r="L29" s="66"/>
-      <c r="M29" s="99"/>
-    </row>
-    <row r="30" spans="1:13" ht="35" customHeight="1">
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="1:13" ht="34.950000000000003" customHeight="1">
       <c r="A30" s="5"/>
-      <c r="B30" s="97"/>
+      <c r="B30" s="169"/>
       <c r="C30" s="81" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="113"/>
-      <c r="E30" s="114"/>
+        <v>130</v>
+      </c>
+      <c r="D30" s="103"/>
+      <c r="E30" s="104"/>
       <c r="F30" s="46"/>
       <c r="G30" s="79" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H30" s="48"/>
       <c r="I30" s="6"/>
@@ -3375,21 +3375,21 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="35" customHeight="1">
+    <row r="31" spans="1:13" ht="34.950000000000003" customHeight="1">
       <c r="A31" s="5"/>
-      <c r="B31" s="162" t="s">
+      <c r="B31" s="115" t="s">
         <v>67</v>
       </c>
       <c r="C31" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="113" t="s">
+      <c r="D31" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="114"/>
+      <c r="E31" s="104"/>
       <c r="F31" s="46"/>
       <c r="G31" s="79" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H31" s="48">
         <v>1234</v>
@@ -3405,17 +3405,17 @@
     </row>
     <row r="32" spans="1:13" ht="37.5" customHeight="1">
       <c r="A32" s="5"/>
-      <c r="B32" s="96"/>
+      <c r="B32" s="116"/>
       <c r="C32" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="113" t="s">
+      <c r="D32" s="103" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="114"/>
+      <c r="E32" s="104"/>
       <c r="F32" s="46"/>
       <c r="G32" s="79" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H32" s="48">
         <v>1234</v>
@@ -3424,38 +3424,38 @@
     </row>
     <row r="33" spans="1:15" ht="42" customHeight="1">
       <c r="A33" s="5"/>
-      <c r="B33" s="96"/>
+      <c r="B33" s="116"/>
       <c r="C33" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="113" t="s">
+      <c r="D33" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="E33" s="114"/>
+      <c r="E33" s="104"/>
       <c r="F33" s="46"/>
       <c r="G33" s="79" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H33" s="48">
         <v>1234</v>
       </c>
       <c r="I33" s="6"/>
-      <c r="K33" s="100" t="s">
+      <c r="K33" s="171" t="s">
         <v>101</v>
       </c>
-      <c r="L33" s="101"/>
-      <c r="M33" s="101"/>
-    </row>
-    <row r="34" spans="1:15" ht="35" customHeight="1">
+      <c r="L33" s="172"/>
+      <c r="M33" s="172"/>
+    </row>
+    <row r="34" spans="1:15" ht="34.950000000000003" customHeight="1">
       <c r="A34" s="5"/>
-      <c r="B34" s="96"/>
+      <c r="B34" s="116"/>
       <c r="C34" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="113" t="s">
+      <c r="D34" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="163"/>
+      <c r="E34" s="117"/>
       <c r="F34" s="46">
         <v>1234</v>
       </c>
@@ -3465,21 +3465,21 @@
       <c r="K34" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="L34" s="102" t="s">
+      <c r="L34" s="173" t="s">
         <v>103</v>
       </c>
-      <c r="M34" s="102"/>
-    </row>
-    <row r="35" spans="1:15" ht="35" customHeight="1">
+      <c r="M34" s="173"/>
+    </row>
+    <row r="35" spans="1:15" ht="34.950000000000003" customHeight="1">
       <c r="A35" s="5"/>
-      <c r="B35" s="96"/>
+      <c r="B35" s="116"/>
       <c r="C35" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="122" t="s">
+      <c r="D35" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="164"/>
+      <c r="E35" s="119"/>
       <c r="F35" s="46">
         <v>1234</v>
       </c>
@@ -3490,14 +3490,14 @@
       <c r="L35" s="85"/>
       <c r="M35" s="86"/>
     </row>
-    <row r="36" spans="1:15" ht="35" customHeight="1">
+    <row r="36" spans="1:15" ht="34.950000000000003" customHeight="1">
       <c r="A36" s="5"/>
       <c r="B36" s="77"/>
       <c r="C36" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="D36" s="113"/>
-      <c r="E36" s="114"/>
+        <v>133</v>
+      </c>
+      <c r="D36" s="103"/>
+      <c r="E36" s="104"/>
       <c r="F36" s="46"/>
       <c r="G36" s="79"/>
       <c r="H36" s="48"/>
@@ -3506,50 +3506,50 @@
       <c r="L36" s="85"/>
       <c r="M36" s="86"/>
     </row>
-    <row r="37" spans="1:15" ht="35" customHeight="1">
+    <row r="37" spans="1:15" ht="34.950000000000003" customHeight="1">
       <c r="A37" s="5"/>
       <c r="B37" s="77"/>
       <c r="C37" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="D37" s="113"/>
-      <c r="E37" s="114"/>
+        <v>132</v>
+      </c>
+      <c r="D37" s="103"/>
+      <c r="E37" s="104"/>
       <c r="F37" s="46"/>
       <c r="G37" s="79"/>
       <c r="H37" s="48"/>
       <c r="I37" s="6"/>
       <c r="K37" s="84"/>
       <c r="L37" s="87"/>
-      <c r="M37" s="177"/>
-    </row>
-    <row r="38" spans="1:15" ht="35" customHeight="1">
+      <c r="M37" s="107"/>
+    </row>
+    <row r="38" spans="1:15" ht="34.950000000000003" customHeight="1">
       <c r="A38" s="5"/>
       <c r="B38" s="77"/>
       <c r="C38" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="D38" s="113"/>
-      <c r="E38" s="114"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="104"/>
       <c r="F38" s="46"/>
       <c r="G38" s="79"/>
       <c r="H38" s="48"/>
       <c r="I38" s="6"/>
       <c r="K38" s="84"/>
       <c r="L38" s="87"/>
-      <c r="M38" s="177"/>
-    </row>
-    <row r="39" spans="1:15" ht="35" customHeight="1">
+      <c r="M38" s="107"/>
+    </row>
+    <row r="39" spans="1:15" ht="34.950000000000003" customHeight="1">
       <c r="A39" s="5"/>
-      <c r="B39" s="162" t="s">
+      <c r="B39" s="115" t="s">
         <v>84</v>
       </c>
       <c r="C39" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39" s="113" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="E39" s="114"/>
+      <c r="E39" s="104"/>
       <c r="F39" s="46"/>
       <c r="G39" s="79"/>
       <c r="H39" s="48"/>
@@ -3560,16 +3560,16 @@
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
     </row>
-    <row r="40" spans="1:15" ht="35" customHeight="1">
+    <row r="40" spans="1:15" ht="34.950000000000003" customHeight="1">
       <c r="A40" s="5"/>
-      <c r="B40" s="96"/>
+      <c r="B40" s="116"/>
       <c r="C40" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="167" t="s">
+      <c r="D40" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="E40" s="168"/>
+      <c r="E40" s="106"/>
       <c r="F40" s="64"/>
       <c r="G40" s="47"/>
       <c r="H40" s="65"/>
@@ -3580,16 +3580,16 @@
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
     </row>
-    <row r="41" spans="1:15" ht="35" customHeight="1">
+    <row r="41" spans="1:15" ht="34.950000000000003" customHeight="1">
       <c r="A41" s="5"/>
-      <c r="B41" s="96"/>
+      <c r="B41" s="116"/>
       <c r="C41" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="167" t="s">
+      <c r="D41" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="168"/>
+      <c r="E41" s="106"/>
       <c r="F41" s="64"/>
       <c r="G41" s="47"/>
       <c r="H41" s="48"/>
@@ -3600,34 +3600,34 @@
       <c r="N41" s="67"/>
       <c r="O41" s="68"/>
     </row>
-    <row r="42" spans="1:15" ht="35" customHeight="1">
+    <row r="42" spans="1:15" ht="34.950000000000003" customHeight="1">
       <c r="A42" s="5"/>
-      <c r="B42" s="96"/>
+      <c r="B42" s="116"/>
       <c r="C42" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="165" t="s">
+      <c r="D42" s="108" t="s">
         <v>93</v>
       </c>
-      <c r="E42" s="165"/>
+      <c r="E42" s="108"/>
       <c r="F42" s="65"/>
       <c r="G42" s="80"/>
       <c r="H42" s="92"/>
       <c r="I42" s="6"/>
-      <c r="K42" s="171"/>
-      <c r="L42" s="172"/>
-      <c r="M42" s="172"/>
+      <c r="K42" s="97"/>
+      <c r="L42" s="98"/>
+      <c r="M42" s="98"/>
       <c r="N42" s="67"/>
       <c r="O42" s="68"/>
     </row>
-    <row r="43" spans="1:15" ht="35" customHeight="1">
+    <row r="43" spans="1:15" ht="34.950000000000003" customHeight="1">
       <c r="A43" s="5"/>
-      <c r="B43" s="96"/>
+      <c r="B43" s="116"/>
       <c r="C43" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" s="167"/>
-      <c r="E43" s="168"/>
+        <v>143</v>
+      </c>
+      <c r="D43" s="105"/>
+      <c r="E43" s="106"/>
       <c r="F43" s="48"/>
       <c r="G43" s="80"/>
       <c r="H43" s="92"/>
@@ -3640,36 +3640,36 @@
     </row>
     <row r="44" spans="1:15" ht="39.75" customHeight="1" thickBot="1">
       <c r="A44" s="5"/>
-      <c r="B44" s="166"/>
+      <c r="B44" s="120"/>
       <c r="C44" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="D44" s="165"/>
-      <c r="E44" s="165"/>
+        <v>134</v>
+      </c>
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
       <c r="F44" s="48"/>
       <c r="G44" s="80"/>
       <c r="H44" s="92"/>
       <c r="I44" s="6"/>
       <c r="K44" s="91"/>
-      <c r="L44" s="174"/>
-      <c r="M44" s="174"/>
+      <c r="L44" s="100"/>
+      <c r="M44" s="100"/>
       <c r="N44" s="67"/>
       <c r="O44" s="68"/>
     </row>
-    <row r="45" spans="1:15" ht="35" customHeight="1" thickBot="1">
+    <row r="45" spans="1:15" ht="34.950000000000003" customHeight="1" thickBot="1">
       <c r="A45" s="5"/>
-      <c r="B45" s="161" t="s">
-        <v>142</v>
-      </c>
-      <c r="C45" s="157"/>
-      <c r="D45" s="157"/>
-      <c r="E45" s="157"/>
+      <c r="B45" s="114" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
       <c r="F45" s="70">
         <f>SUM(F17:F44)</f>
         <v>7404</v>
       </c>
       <c r="G45" s="93" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H45" s="94">
         <f>SUM(H17:H44)</f>
@@ -3682,49 +3682,49 @@
       <c r="N45" s="67"/>
       <c r="O45" s="68"/>
     </row>
-    <row r="46" spans="1:15" ht="35" customHeight="1" thickBot="1">
+    <row r="46" spans="1:15" ht="34.950000000000003" customHeight="1" thickBot="1">
       <c r="A46" s="5"/>
-      <c r="B46" s="156" t="s">
+      <c r="B46" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="157"/>
-      <c r="D46" s="157"/>
-      <c r="E46" s="157"/>
-      <c r="F46" s="158">
+      <c r="C46" s="110"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="111">
         <f>F45-H45</f>
         <v>-1357</v>
       </c>
-      <c r="G46" s="159"/>
-      <c r="H46" s="160"/>
+      <c r="G46" s="112"/>
+      <c r="H46" s="113"/>
       <c r="I46" s="6"/>
     </row>
     <row r="47" spans="1:15" ht="30.75" customHeight="1">
       <c r="A47" s="5"/>
-      <c r="B47" s="169" t="s">
+      <c r="B47" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="170"/>
-      <c r="D47" s="170"/>
-      <c r="E47" s="170"/>
-      <c r="F47" s="170"/>
-      <c r="G47" s="170"/>
-      <c r="H47" s="170"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="96"/>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="1:15" ht="25" customHeight="1">
+    <row r="48" spans="1:15" ht="25.05" customHeight="1">
       <c r="A48" s="5"/>
-      <c r="B48" s="173" t="s">
-        <v>126</v>
-      </c>
-      <c r="C48" s="173"/>
-      <c r="D48" s="173"/>
-      <c r="E48" s="173"/>
-      <c r="F48" s="173"/>
-      <c r="G48" s="173"/>
-      <c r="H48" s="173"/>
+      <c r="B48" s="99" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" s="99"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="99"/>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" spans="1:9" ht="25" customHeight="1" thickBot="1">
+    <row r="49" spans="1:9" ht="25.05" customHeight="1" thickBot="1">
       <c r="A49" s="74"/>
       <c r="B49" s="75"/>
       <c r="C49" s="75"/>
@@ -3735,58 +3735,115 @@
       <c r="H49" s="75"/>
       <c r="I49" s="76"/>
     </row>
-    <row r="51" spans="1:9" ht="25" customHeight="1">
+    <row r="51" spans="1:9" ht="25.05" customHeight="1">
       <c r="E51" s="67"/>
       <c r="F51" s="68"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:9" ht="25" customHeight="1">
+    <row r="52" spans="1:9" ht="25.05" customHeight="1">
       <c r="E52" s="67"/>
       <c r="F52" s="68"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:9" ht="25" customHeight="1">
+    <row r="53" spans="1:9" ht="25.05" customHeight="1">
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:9" ht="25" customHeight="1">
+    <row r="54" spans="1:9" ht="25.05" customHeight="1">
       <c r="E54" s="67"/>
       <c r="F54" s="68"/>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="1:9" ht="25" customHeight="1">
+    <row r="55" spans="1:9" ht="25.05" customHeight="1">
       <c r="E55" s="67"/>
       <c r="F55" s="68"/>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="1:9" ht="25" customHeight="1">
+    <row r="56" spans="1:9" ht="25.05" customHeight="1">
       <c r="E56" s="67"/>
       <c r="F56" s="68"/>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="1:9" ht="25" customHeight="1">
+    <row r="57" spans="1:9" ht="25.05" customHeight="1">
       <c r="E57" s="67"/>
       <c r="F57" s="68"/>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="1:9" ht="25" customHeight="1">
+    <row r="58" spans="1:9" ht="25.05" customHeight="1">
       <c r="E58" s="67"/>
       <c r="F58" s="68"/>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="1:9" ht="25" customHeight="1">
+    <row r="59" spans="1:9" ht="25.05" customHeight="1">
       <c r="E59" s="67"/>
       <c r="F59" s="68"/>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="1:9" ht="25" customHeight="1">
+    <row r="60" spans="1:9" ht="25.05" customHeight="1">
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="B17:B30"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
     <mergeCell ref="B47:H47"/>
     <mergeCell ref="K42:M42"/>
     <mergeCell ref="B48:H48"/>
@@ -3803,63 +3860,6 @@
     <mergeCell ref="M37:M38"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B17:B30"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="M25:M27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.15125000476837158" right="9.5555558800697327E-2" top="0.35722222924232483" bottom="0.2222222238779068" header="0.30000001192092896" footer="0.30000001192092896"/>
